--- a/services/users/student.xlsx
+++ b/services/users/student.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>.NET, Android, Cloud Computing</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,9 +463,10 @@
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="39.5703125" customWidth="1"/>
     <col min="7" max="7" width="43.42578125" customWidth="1"/>
+    <col min="8" max="8" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +488,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -504,8 +514,11 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -528,7 +541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -551,7 +564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -574,7 +587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -597,7 +610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
